--- a/medicine/Enfance/Marie-Hélène_Delval/Marie-Hélène_Delval.xlsx
+++ b/medicine/Enfance/Marie-Hélène_Delval/Marie-Hélène_Delval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie-H%C3%A9l%C3%A8ne_Delval</t>
+          <t>Marie-Hélène_Delval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Hélène Delval, née en 1944 en Loire-Atlantique, est une traductrice et écrivaine française de romans de fantasy.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie-H%C3%A9l%C3%A8ne_Delval</t>
+          <t>Marie-Hélène_Delval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Hélène Delval est autrice de livres de fantasy et traductrice.
 Elle est connue surtout pour sa série Les Dragons de Nalsara et le livre Les chats. Elle est  traductrice en chef de plusieurs titres Bayard (Les Belles Histoires, Pomme d'Api ou Popi).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie-H%C3%A9l%C3%A8ne_Delval</t>
+          <t>Marie-Hélène_Delval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,21 +559,94 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Séries
-Série Les Dragons de Nalsara (20 volumes)
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Série Les Dragons de Nalsara (20 volumes)
 Série Faim de Loup (12 volumes=
 Série Mission Antéria
 Les Glaces d'Antéria
 Le Soleil des Orthanques
-Les Orages d'Erna-Thor
-Romans indépendants
-Les Chats
+Les Orages d'Erna-Thor</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-Hélène_Delval</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-H%C3%A9l%C3%A8ne_Delval</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Chats
 L'École des Géants
 Là ou vivent les morts, Tribal Flammarion (1999)
-Jésus pour les petits, dessins de François Roca, Bayard édition, 1998[1]
-Quand vient l'orage, Bayard Jeunesse, 2015  (ISBN 978-2747058049)
-Nouvelles
-Le Fantôme de la cave, Bayard Presse, 1980, 3 p.Publié dans le no 30 d'Astrapi, le 15 janvier 1980, p. 13-15.
+Jésus pour les petits, dessins de François Roca, Bayard édition, 1998
+Quand vient l'orage, Bayard Jeunesse, 2015  (ISBN 978-2747058049)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie-Hélène_Delval</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-H%C3%A9l%C3%A8ne_Delval</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Fantôme de la cave, Bayard Presse, 1980, 3 p.Publié dans le no 30 d'Astrapi, le 15 janvier 1980, p. 13-15.
 Le Pays brodé, Bayard Presse, 1980, 5 p.Adaptation d'un conte tibétain. Publié dans le no 51 d'Astrapi le 1er décembre 1980, p. 11-15.
 Le Garçon qui cherchait Noël, Bayard Presse, 1980, 5 p.Coécrit avec André Gréani. Publié dans le no 52 d'Astrapi, le 15 décembre 1980, p. 9-13.
 Les drinns, 1981Publié dans J'aime lire, no 52Quelque chose derrière la fenêtre, Bayard Presse, 1981, 3 p.Publié dans le no 60 d'Astrapi le 15 avril 1981, p. 5-7.
@@ -569,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marie-H%C3%A9l%C3%A8ne_Delval</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie-Hélène_Delval</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie-H%C3%A9l%C3%A8ne_Delval</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les années indiquées entre parenthèses sont les dates de publication originale des ouvrages, et non pas les dates de parution en France. 
 L'Héritage (Inheritance), tomes 2 et 4, de Christopher Paolini (2005-2011)
